--- a/АВС.xlsx
+++ b/АВС.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23427"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B1CC58F-424A-4EAC-9028-46AED0B7B755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7E0CFF7-06F8-4BE4-A83B-350582D2B8C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAM" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -117,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -142,6 +149,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -527,6 +537,756 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>WRITE, SDD, size:bandwith</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SDD!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20480</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28672</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36864</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40960</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45056</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53248</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57344</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69632</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>73728</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77824</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SDD!$C$4:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8258.4220000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7925.5749999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7916.9139999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8048.6670000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8422.4639999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8292.1090000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7836.6189999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7847.6120000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8108.5159999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8045.0959999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6594.7070000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7853.92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8092.9179999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8079.7150000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6031.8559999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7814.7790000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7923.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7962.3779999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7753.9319999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8262.9009999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8732-498A-98C1-34A4F0D2C26C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="81654855"/>
+        <c:axId val="2089559384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="81654855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2089559384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2089559384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81654855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>WRITE, SDD, size:bandwith</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SDD!$R$4:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12582912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20971520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25165824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29360128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37748736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SDD!$S$4:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8009.1859999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8173.4570000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7250.4610000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-36950.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9765.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-11718.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-13671.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-17578.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A2A-4CBB-82B3-4D6BFC02DF13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1890178791"/>
+        <c:axId val="1051490279"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1890178791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1051490279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1051490279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1890178791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
             <c:v>WRITE, SDD, size:relErr</c:v>
           </c:tx>
           <c:spPr>
@@ -803,7 +1563,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1146,7 +1906,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1410,6 +2170,678 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1888265031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>WRITE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SDD!$A$61:$A$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SDD!$B$61:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35.040999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.864999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.686999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.367000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-763E-49B7-943C-4F4254BEECC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1737703032"/>
+        <c:axId val="625614439"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1737703032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625614439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="625614439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1737703032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>READ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SDD!$D$61:$D$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SDD!$E$61:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34.783000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.957000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.788</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.201000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.786</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.122999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-404F-40B6-A567-9E3F4F03F523}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1516858728"/>
+        <c:axId val="1740477768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1516858728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1740477768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1740477768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1516858728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2479,6 +3911,678 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>WRITE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>RAM!$A$48:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RAM!$B$48:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>60.026000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.947000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.258000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.151000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.143000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.079000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2919999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-029E-43F6-8B1B-B8B16F330075}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="151003672"/>
+        <c:axId val="299013976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151003672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299013976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="299013976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151003672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>READ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>RAM!$H$48:$H$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RAM!$I$48:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>40.786000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.151000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.983000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.253</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5529999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-630F-4AA7-B312-D35580A15D8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1516866216"/>
+        <c:axId val="1740495912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1516866216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1740495912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1740495912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1516866216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
             <c:v>READ, SDD, size:relErr</c:v>
           </c:tx>
           <c:spPr>
@@ -2834,7 +4938,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3243,7 +5347,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3651,756 +5755,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>WRITE, SDD, size:bandwith</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>SDD!$B$4:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12288</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20480</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24576</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28672</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36864</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40960</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45056</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>49152</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>53248</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>57344</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>61440</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>69632</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>73728</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>77824</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>81920</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>SDD!$C$4:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>8258.4220000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7925.5749999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7916.9139999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8048.6670000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8422.4639999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8292.1090000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7836.6189999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7847.6120000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8108.5159999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8045.0959999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6594.7070000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7853.92</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8092.9179999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8079.7150000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6031.8559999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7814.7790000000005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7923.31</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7962.3779999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7753.9319999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8262.9009999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8732-498A-98C1-34A4F0D2C26C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="81654855"/>
-        <c:axId val="2089559384"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="81654855"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2089559384"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2089559384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="81654855"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>WRITE, SDD, size:bandwith</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>SDD!$R$4:$R$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4194304</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8388608</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12582912</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16777216</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20971520</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25165824</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29360128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33554432</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37748736</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>SDD!$S$4:$S$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8009.1859999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8173.4570000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7250.4610000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-36950.125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-9765.625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-11718.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-13671.875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-15625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-17578.125</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3A2A-4CBB-82B3-4D6BFC02DF13}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1890178791"/>
-        <c:axId val="1051490279"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1890178791"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1051490279"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1051490279"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1890178791"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4522,6 +5876,166 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6945,6 +8459,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -11226,6 +14804,84 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE36D47B-E32F-4805-8705-93E839A8DA07}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BF6EE2EC-9BC2-4508-8092-7BEEAC8AFD1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3543B82-6089-48D7-9388-BC3EBC3611B3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BE36D47B-E32F-4805-8705-93E839A8DA07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11548,6 +15204,84 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94DE550-395C-4323-9F15-44C359FB326E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CEB93A6-820A-486D-B989-2531CABA76F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F5D21D-BA64-4A72-A657-CE8739F8B98D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B94DE550-395C-4323-9F15-44C359FB326E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11848,10 +15582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12061,6 +15795,169 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
     </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3">
+        <v>60.026000000000003</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>40.786000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="3">
+        <v>10</v>
+      </c>
+      <c r="B49" s="3">
+        <v>58.947000000000003</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3">
+        <v>10</v>
+      </c>
+      <c r="I49" s="3">
+        <v>32.151000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="3">
+        <v>15</v>
+      </c>
+      <c r="B50" s="12">
+        <v>45.258000000000003</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3">
+        <v>15</v>
+      </c>
+      <c r="I50" s="3">
+        <v>27.983000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="3">
+        <v>20</v>
+      </c>
+      <c r="B51" s="3">
+        <v>35.151000000000003</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3">
+        <v>20</v>
+      </c>
+      <c r="I51" s="3">
+        <v>24.462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="3">
+        <v>25</v>
+      </c>
+      <c r="B52" s="3">
+        <v>28.143000000000001</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3">
+        <v>25</v>
+      </c>
+      <c r="I52" s="3">
+        <v>17.253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="3">
+        <v>30</v>
+      </c>
+      <c r="B53" s="3">
+        <v>15.079000000000001</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3">
+        <v>30</v>
+      </c>
+      <c r="I53" s="3">
+        <v>13.305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="3">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3">
+        <v>10.972</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3">
+        <v>35</v>
+      </c>
+      <c r="I54" s="3">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="3">
+        <v>40</v>
+      </c>
+      <c r="B55" s="3">
+        <v>6.2919999999999998</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3">
+        <v>40</v>
+      </c>
+      <c r="I55" s="3">
+        <v>2.5529999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12069,10 +15966,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3B9B96-B310-4619-B84F-D8CECE2B4195}">
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L6" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9:V12"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13605,6 +17502,118 @@
       </c>
       <c r="AC23" s="3"/>
     </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>35.040999999999997</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>34.783000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <v>27.73</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>24.957000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>15</v>
+      </c>
+      <c r="B63">
+        <v>25.864999999999998</v>
+      </c>
+      <c r="D63">
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>21.064</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>20</v>
+      </c>
+      <c r="B64">
+        <v>12.686999999999999</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>25</v>
+      </c>
+      <c r="B65">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="D65">
+        <v>25</v>
+      </c>
+      <c r="E65">
+        <v>17.788</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>30</v>
+      </c>
+      <c r="B66">
+        <v>16.367000000000001</v>
+      </c>
+      <c r="D66">
+        <v>30</v>
+      </c>
+      <c r="E66">
+        <v>13.201000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>35</v>
+      </c>
+      <c r="B67">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="D67">
+        <v>35</v>
+      </c>
+      <c r="E67">
+        <v>13.786</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>40</v>
+      </c>
+      <c r="B68">
+        <v>12.132</v>
+      </c>
+      <c r="D68">
+        <v>40</v>
+      </c>
+      <c r="E68">
+        <v>11.122999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
